--- a/SEMESTER2/STATISTIK DAN DATA ANALIS/MATERI/JAWABAN TUGAS PERTEMUAN 2.xlsx
+++ b/SEMESTER2/STATISTIK DAN DATA ANALIS/MATERI/JAWABAN TUGAS PERTEMUAN 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PROJECT X\S2 PASCA\clone 3\SAKOLA-PASCA\SEMESTER2\STATISTIK DAN DATA ANALIS\MATERI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABI\__MATA KULIAH PASCA\clone 2\SAKOLA-PASCA\SEMESTER2\STATISTIK DAN DATA ANALIS\MATERI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E29EEE-915F-43F9-9D50-7BDBB751CFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824EAE35-32F7-4603-9611-977F4728F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1125" windowWidth="16890" windowHeight="11040" xr2:uid="{B255CA55-95D2-42F4-895E-6AEBCCF71E4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B255CA55-95D2-42F4-895E-6AEBCCF71E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Data terkecil = 10 dan Data terbesar = 98</t>
   </si>
@@ -73,12 +73,60 @@
   </si>
   <si>
     <t>- 21,5 - 0,5 = 21</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>RENTANG DATA (r)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Banyaknya kelas (k)</t>
+  </si>
+  <si>
+    <t>panjang kelas p</t>
+  </si>
+  <si>
+    <t>banyak kelas 7</t>
+  </si>
+  <si>
+    <t>ujung bawah kelas pertama</t>
+  </si>
+  <si>
+    <t>batas bawah nya 34 (dipilih) batas bawahnya 34.50</t>
+  </si>
+  <si>
+    <t>batas atas kelas pertama</t>
+  </si>
+  <si>
+    <t>ujung atas kelas pertama</t>
+  </si>
+  <si>
+    <t>tabel</t>
+  </si>
+  <si>
+    <t>34-47</t>
+  </si>
+  <si>
+    <t>48-61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,8 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,18 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551F0235-EA9C-4E70-B82D-91D15FD08368}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>79</v>
       </c>
@@ -485,7 +537,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>70</v>
       </c>
@@ -534,8 +586,11 @@
       <c r="P2">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -584,8 +639,15 @@
       <c r="P3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <f>MIN(A1:P5)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80</v>
       </c>
@@ -634,8 +696,15 @@
       <c r="P4">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <f>MAX(A1:P5)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>63</v>
       </c>
@@ -684,69 +753,146 @@
       <c r="P5">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <f>S4-S3</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <f>COUNT(A1:P5)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="1">
+        <f>LOG(80)</f>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="T7" s="2">
+        <f>1 + (3.3*S7)</f>
+        <v>7.2801969570734135</v>
+      </c>
+      <c r="U7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="1">
+        <f>S4/T7</f>
+        <v>13.598533196799291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="1">
+        <f>S10+S8</f>
+        <v>48.098533196799295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="U13">
+        <f>34+14</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>

--- a/SEMESTER2/STATISTIK DAN DATA ANALIS/MATERI/JAWABAN TUGAS PERTEMUAN 2.xlsx
+++ b/SEMESTER2/STATISTIK DAN DATA ANALIS/MATERI/JAWABAN TUGAS PERTEMUAN 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABI\__MATA KULIAH PASCA\clone 2\SAKOLA-PASCA\SEMESTER2\STATISTIK DAN DATA ANALIS\MATERI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PROJECT X\S2 PASCA\clone 3\SAKOLA-PASCA\SEMESTER2\STATISTIK DAN DATA ANALIS\MATERI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824EAE35-32F7-4603-9611-977F4728F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E3C2B-E6D9-46C6-AAFF-7F4B09731B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B255CA55-95D2-42F4-895E-6AEBCCF71E4A}"/>
+    <workbookView xWindow="1230" yWindow="1125" windowWidth="16890" windowHeight="11040" xr2:uid="{B255CA55-95D2-42F4-895E-6AEBCCF71E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Data terkecil = 10 dan Data terbesar = 98</t>
   </si>
@@ -114,10 +136,40 @@
     <t>tabel</t>
   </si>
   <si>
-    <t>34-47</t>
-  </si>
-  <si>
-    <t>48-61</t>
+    <t>Frekuensi</t>
+  </si>
+  <si>
+    <t>Batas Kelas</t>
+  </si>
+  <si>
+    <t>nilai tengah</t>
+  </si>
+  <si>
+    <t>Frek rel (%)</t>
+  </si>
+  <si>
+    <t>Tabel Komulatif &lt;</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>nilai 3 diambil paling atas frek</t>
+  </si>
+  <si>
+    <t>Tabel Komulatif  &gt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diambil dari Nilai jumlah </t>
   </si>
 </sst>
 </file>
@@ -125,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -136,15 +188,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,19 +216,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -474,20 +693,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551F0235-EA9C-4E70-B82D-91D15FD08368}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" customWidth="1"/>
+    <col min="31" max="31" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>79</v>
       </c>
@@ -537,7 +764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>70</v>
       </c>
@@ -590,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90</v>
       </c>
@@ -647,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80</v>
       </c>
@@ -704,7 +931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>63</v>
       </c>
@@ -761,7 +988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>17</v>
       </c>
@@ -770,7 +997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>18</v>
       </c>
@@ -778,7 +1005,7 @@
         <f>LOG(80)</f>
         <v>1.9030899869919435</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <f>1 + (3.3*S7)</f>
         <v>7.2801969570734135</v>
       </c>
@@ -786,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -798,7 +1025,7 @@
         <v>13.598533196799291</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -809,7 +1036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -820,7 +1047,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -832,7 +1059,7 @@
         <v>48.098533196799295</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -843,60 +1070,377 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="U13">
-        <f>34+14</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AE13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T14" s="12"/>
+      <c r="U14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="12"/>
+      <c r="X14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="10">
+        <v>34</v>
+      </c>
+      <c r="T15" s="10">
+        <f>S15+13</f>
+        <v>47</v>
+      </c>
+      <c r="U15" s="11" cm="1">
+        <f t="array" ref="U15:U20">FREQUENCY(A1:P5,T15:T19)</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="6">
+        <f>S15-0.5</f>
+        <v>33.5</v>
+      </c>
+      <c r="W15" s="7">
+        <f>T15+0.5</f>
+        <v>47.5</v>
+      </c>
+      <c r="X15" s="3">
+        <f>(S15+T15)/2</f>
+        <v>40.5</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>(U15/$U$21)*100</f>
+        <v>3.75</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB15" s="7">
+        <f>W15</f>
+        <v>47.5</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="7">
+        <f>V15</f>
+        <v>33.5</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="S16" s="4">
+        <f>T15+1</f>
+        <v>48</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16:T20" si="0">S16+13</f>
+        <v>61</v>
+      </c>
+      <c r="U16" s="5">
+        <v>8</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" ref="V16:V20" si="1">S16-0.5</f>
+        <v>47.5</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" ref="W16:W20" si="2">T16+0.5</f>
+        <v>61.5</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" ref="X16:X20" si="3">(S16+T16)/2</f>
+        <v>54.5</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>(U16/$U$21)*100</f>
+        <v>10</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" ref="AB16:AB19" si="4">W16</f>
+        <v>61.5</v>
+      </c>
+      <c r="AC16" s="7">
+        <f>AC15+U16</f>
+        <v>11</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" ref="AF16:AF19" si="5">V16</f>
+        <v>47.5</v>
+      </c>
+      <c r="AG16" s="7">
+        <f>AG15-U15</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="S17" s="4">
+        <f t="shared" ref="S17:S20" si="6">T16+1</f>
+        <v>62</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="U17" s="5">
+        <v>26</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="3"/>
+        <v>68.5</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" ref="Y16:Y19" si="7">(U17/$U$21)*100</f>
+        <v>32.5</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="4"/>
+        <v>75.5</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" ref="AC17:AC19" si="8">AC16+U17</f>
+        <v>37</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="5"/>
+        <v>61.5</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" ref="AG17:AG19" si="9">AG16-U16</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="S18" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="U18" s="5">
+        <v>28</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="1"/>
+        <v>75.5</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="4"/>
+        <v>89.5</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="5"/>
+        <v>75.5</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="S19" s="4">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="U19" s="5">
+        <v>15</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="1"/>
+        <v>89.5</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="2"/>
+        <v>103.5</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="3"/>
+        <v>96.5</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="7"/>
+        <v>18.75</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="4"/>
+        <v>103.5</v>
+      </c>
+      <c r="AC19" s="19">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" s="9">
+        <f t="shared" si="5"/>
+        <v>89.5</v>
+      </c>
+      <c r="AG19" s="9">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="9"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f>SUM(_xlfn.ANCHORARRAY(U15))</f>
+        <v>80</v>
+      </c>
+      <c r="Y21">
+        <f>SUM(Y15:Y20)</f>
+        <v>100</v>
+      </c>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA22" s="15"/>
+      <c r="AB22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA23" s="20"/>
+      <c r="AB23" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AE14:AF14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>